--- a/Resultado/informe_diario_20251118.xlsx
+++ b/Resultado/informe_diario_20251118.xlsx
@@ -88,7 +88,7 @@
     <t>Valor transacciones</t>
   </si>
   <si>
-    <t>0.38%</t>
+    <t>0.46%</t>
   </si>
   <si>
     <t>22.31%</t>
@@ -103,16 +103,16 @@
     <t>18.89%</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>83.71%</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>79.1%</t>
   </si>
   <si>
     <t>3,997,173,240,851</t>
   </si>
   <si>
-    <t>0.25%</t>
+    <t>0.33%</t>
   </si>
   <si>
     <t>25.81%</t>
@@ -130,7 +130,7 @@
     <t>4,537,846,066,638</t>
   </si>
   <si>
-    <t>0.62%</t>
+    <t>0.79%</t>
   </si>
   <si>
     <t>48.12%</t>
@@ -531,10 +531,10 @@
         <v>8646</v>
       </c>
       <c r="C2">
-        <v>9123</v>
+        <v>9124</v>
       </c>
       <c r="D2">
-        <v>17769</v>
+        <v>17770</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -545,10 +545,10 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4">
